--- a/tools/cube_drawer.xlsx
+++ b/tools/cube_drawer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Documents\GitHub\cube_web\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAC7F6-C3ED-4B96-92F2-B0040C369D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F150806D-4342-4470-89C5-F93C96E0EC2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>&lt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,12 +70,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -91,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -419,53 +423,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="9" max="11" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="M1" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="7"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="7"/>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
